--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="513">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -573,7 +573,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t xml:space="preserve">Estado de la observación, por defecto 'final' </t>
+    <t>Estado de la observación, por defecto 'final'</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -662,13 +662,10 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/TipoDeObservacion</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1123,9 +1120,6 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
@@ -1212,6 +1206,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1568,6 +1565,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1966,7 +1969,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.62890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -3863,11 +3866,9 @@
       <c r="X16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Y16" s="2"/>
+      <c r="Z16" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3900,30 +3901,30 @@
         <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AO16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3946,13 +3947,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4003,7 +4004,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4027,7 +4028,7 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -4038,10 +4039,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4070,7 +4071,7 @@
         <v>140</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>142</v>
@@ -4111,19 +4112,19 @@
         <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AD18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4147,7 +4148,7 @@
         <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4158,10 +4159,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4184,19 +4185,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4245,7 +4246,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4266,10 +4267,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4280,10 +4281,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4306,13 +4307,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4363,7 +4364,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4387,7 +4388,7 @@
         <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4398,10 +4399,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4430,7 +4431,7 @@
         <v>140</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>142</v>
@@ -4471,19 +4472,19 @@
         <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AC21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AD21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AD21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4507,7 +4508,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4518,10 +4519,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4547,16 +4548,16 @@
         <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4566,7 +4567,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4605,7 +4606,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4626,10 +4627,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4640,10 +4641,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4666,16 +4667,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4725,7 +4726,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4746,10 +4747,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4760,10 +4761,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4789,14 +4790,14 @@
         <v>113</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4806,46 +4807,46 @@
         <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4866,10 +4867,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4880,10 +4881,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4906,17 +4907,17 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4965,7 +4966,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4986,10 +4987,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5000,10 +5001,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5026,19 +5027,19 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5087,7 +5088,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5108,10 +5109,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5122,10 +5123,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5148,19 +5149,19 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5209,7 +5210,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5230,10 +5231,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5244,10 +5245,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5270,19 +5271,19 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5331,7 +5332,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5346,19 +5347,19 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5366,10 +5367,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5392,16 +5393,16 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5451,7 +5452,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5472,13 +5473,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5486,14 +5487,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5512,19 +5513,19 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5573,7 +5574,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5588,19 +5589,19 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5608,14 +5609,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5634,19 +5635,19 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5695,7 +5696,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5710,19 +5711,19 @@
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5730,10 +5731,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5756,16 +5757,16 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5815,7 +5816,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5836,13 +5837,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5850,10 +5851,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5876,17 +5877,17 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5935,7 +5936,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5950,19 +5951,19 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -5970,10 +5971,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5996,19 +5997,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6057,7 +6058,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6066,7 +6067,7 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>105</v>
@@ -6075,27 +6076,27 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>350</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6121,16 +6122,16 @@
         <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6155,14 +6156,14 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6179,7 +6180,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6188,7 +6189,7 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>105</v>
@@ -6203,7 +6204,7 @@
         <v>136</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6214,14 +6215,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6243,16 +6244,16 @@
         <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6277,13 +6278,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>356</v>
+        <v>207</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6301,7 +6302,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6319,27 +6320,27 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP36" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6362,19 +6363,19 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6423,7 +6424,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6444,10 +6445,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6458,10 +6459,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6487,13 +6488,13 @@
         <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6519,14 +6520,14 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>207</v>
+        <v>383</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6561,27 +6562,27 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6607,16 +6608,16 @@
         <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6641,14 +6642,14 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>207</v>
+        <v>383</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6686,10 +6687,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6700,10 +6701,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6726,16 +6727,16 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6785,7 +6786,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6803,27 +6804,27 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6846,16 +6847,16 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6905,7 +6906,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6923,27 +6924,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6966,19 +6967,19 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7027,7 +7028,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7039,19 +7040,19 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7062,10 +7063,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7088,13 +7089,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7145,7 +7146,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7169,7 +7170,7 @@
         <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7180,10 +7181,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7212,7 +7213,7 @@
         <v>140</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>142</v>
@@ -7265,7 +7266,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7289,7 +7290,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7300,14 +7301,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7329,10 +7330,10 @@
         <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>142</v>
@@ -7387,7 +7388,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7422,10 +7423,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7448,13 +7449,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7505,7 +7506,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7514,7 +7515,7 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>105</v>
@@ -7526,10 +7527,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7540,10 +7541,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7566,13 +7567,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7623,7 +7624,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7632,7 +7633,7 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>105</v>
@@ -7644,10 +7645,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7658,10 +7659,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7687,16 +7688,16 @@
         <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7724,11 +7725,11 @@
         <v>117</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7745,7 +7746,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7763,13 +7764,13 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AM48" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AN48" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7780,10 +7781,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7809,16 +7810,16 @@
         <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7843,14 +7844,14 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>207</v>
+        <v>383</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7867,7 +7868,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7885,13 +7886,13 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AM49" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AN49" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7902,10 +7903,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7928,17 +7929,17 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7987,7 +7988,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8011,7 +8012,7 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8022,10 +8023,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8048,13 +8049,13 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8105,7 +8106,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8126,10 +8127,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8140,10 +8141,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8166,16 +8167,16 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8225,7 +8226,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8246,10 +8247,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8260,10 +8261,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8286,16 +8287,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8345,7 +8346,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8366,10 +8367,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8380,10 +8381,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8406,19 +8407,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8467,7 +8468,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8488,10 +8489,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8502,10 +8503,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8528,13 +8529,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8585,7 +8586,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8609,7 +8610,7 @@
         <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8620,10 +8621,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8652,7 +8653,7 @@
         <v>140</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>142</v>
@@ -8705,7 +8706,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8729,7 +8730,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8740,14 +8741,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8769,10 +8770,10 @@
         <v>139</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>142</v>
@@ -8827,7 +8828,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8862,10 +8863,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8891,13 +8892,13 @@
         <v>192</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>206</v>
@@ -8925,13 +8926,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>207</v>
+        <v>383</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>208</v>
+        <v>497</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>209</v>
+        <v>498</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -8949,7 +8950,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>93</v>
@@ -8967,16 +8968,16 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -8984,10 +8985,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9010,19 +9011,19 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9071,7 +9072,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9089,27 +9090,27 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>350</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9135,16 +9136,16 @@
         <v>192</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9169,14 +9170,14 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9193,7 +9194,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9202,7 +9203,7 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -9217,7 +9218,7 @@
         <v>136</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9228,14 +9229,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9257,16 +9258,16 @@
         <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9291,13 +9292,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>356</v>
+        <v>207</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9315,7 +9316,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9333,27 +9334,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9379,16 +9380,16 @@
         <v>83</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9437,7 +9438,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9458,10 +9459,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -310,10 +310,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -2248,13 +2248,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>82</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="514">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreObservacionCL</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -491,7 +491,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for observation</t>
+    <t>Identificación para la observación</t>
   </si>
   <si>
     <t>A unique identifier assigned to this observation.</t>
@@ -576,7 +576,7 @@
     <t>Estado de la observación, por defecto 'final'</t>
   </si>
   <si>
-    <t>The status of the result value.</t>
+    <t>Estado de la observación</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -591,7 +591,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
+    <t>Códigos provistos para el estado de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -619,7 +619,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation</t>
+    <t>Clasificación del tipo de observación</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -631,7 +631,7 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
+    <t>Códigos de alto nivel para la categoría de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
@@ -996,7 +996,7 @@
 PeriodTiminginstant</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation</t>
+    <t>Tiempo/Tiempo-periodo de relevancia clínica para la observación</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -1048,11 +1048,11 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|CareTeam|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation</t>
+    <t>Quien es responsable por la observación</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -1140,10 +1140,10 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+    <t>Alta, baja, normal, etc</t>
+  </si>
+  <si>
+    <t>Interpretación del valor de la observación</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
@@ -1152,7 +1152,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>Codes identifying interpretations of observations.</t>
+    <t>Códigos de identificción para la interpretación de la observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -1177,7 +1177,7 @@
 </t>
   </si>
   <si>
-    <t>Comments about the observation</t>
+    <t>Comentarios sobre la observación</t>
   </si>
   <si>
     <t>Comments about the observation or the results.</t>
@@ -1263,7 +1263,7 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
+    <t>Muestra tomada para la observación</t>
   </si>
   <si>
     <t>The specimen that was used when this observation was made.</t>
@@ -1487,17 +1487,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreObservacionCL|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
+    <t>Grupo de recursos relacionados a la observación</t>
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1528,7 +1528,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
+    <t>Componentes de los resultados</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
@@ -1558,7 +1558,7 @@
     <t>Observation.component.code</t>
   </si>
   <si>
-    <t>Type of component observation (code / type)</t>
+    <t>Tipo de componente de la observación (code/type)</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "code".</t>
@@ -1567,7 +1567,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
+    <t>Códigos de identficación simple para el nombre de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -1584,7 +1584,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual component result</t>
+    <t>Actual Resultado del componente</t>
   </si>
   <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Interpretación del valor del componente de la observación</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1954,7 +1957,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="164.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3214,7 +3217,7 @@
         <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>82</v>
@@ -3574,7 +3577,7 @@
         <v>93</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>94</v>
@@ -3696,7 +3699,7 @@
         <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>82</v>
@@ -5626,7 +5629,7 @@
         <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -5868,7 +5871,7 @@
         <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>82</v>
@@ -6232,7 +6235,7 @@
         <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6354,7 +6357,7 @@
         <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
@@ -6718,7 +6721,7 @@
         <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
@@ -8158,7 +8161,7 @@
         <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
@@ -8398,7 +8401,7 @@
         <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>82</v>
@@ -8880,7 +8883,7 @@
         <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9002,7 +9005,7 @@
         <v>93</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
@@ -9246,7 +9249,7 @@
         <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>82</v>
@@ -9261,7 +9264,7 @@
         <v>361</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>362</v>
+        <v>510</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>363</v>
@@ -9351,10 +9354,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9380,10 +9383,10 @@
         <v>83</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>421</v>
@@ -9438,7 +9441,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1152,7 +1152,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>Códigos de identificción para la interpretación de la observación</t>
+    <t>Códigos de identificación para la interpretación de la observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -1567,7 +1567,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Códigos de identficación simple para el nombre de una observación</t>
+    <t>Códigos de identificación simple para el nombre de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -1971,7 +1971,7 @@
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="68.62890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationIniciarCuidadorLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1947,15 +1947,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1966,28 +1966,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.62890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.4140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="214.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="93.1640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
